--- a/excel/levels_config.xlsx
+++ b/excel/levels_config.xlsx
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+  <si>
+    <t>编号【KEY】</t>
+  </si>
   <si>
     <t>关卡编号</t>
   </si>
@@ -36,6 +39,9 @@
   </si>
   <si>
     <t>额外钞票奖励</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
   <si>
     <t>level</t>
@@ -48,6 +54,12 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>serve_no</t>
+  </si>
+  <si>
+    <t>client</t>
   </si>
 </sst>
 </file>
@@ -1211,22 +1223,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="F8 J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:4">
+    <row r="1" ht="16.5" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1236,148 +1249,217 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="16.5" spans="1:4">
+    <row r="2" ht="16.5" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>200</v>
+      </c>
+      <c r="D6" s="4">
+        <v>300</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>400</v>
+      </c>
+      <c r="D7" s="4">
+        <v>600</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>600</v>
+      </c>
+      <c r="D8" s="4">
+        <v>900</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>800</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
-    <row r="3" ht="16.5" spans="1:4">
-      <c r="A3" s="3" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B11" s="4">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="C11" s="4">
+        <v>1200</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>200</v>
-      </c>
-      <c r="C4" s="4">
-        <v>300</v>
-      </c>
-      <c r="D4" s="2"/>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1400</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2100</v>
+      </c>
+      <c r="E12" s="2"/>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>400</v>
-      </c>
-      <c r="C5" s="4">
-        <v>600</v>
-      </c>
-      <c r="D5" s="2"/>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1600</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2400</v>
+      </c>
+      <c r="E13" s="2"/>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>600</v>
-      </c>
-      <c r="C6" s="4">
-        <v>900</v>
-      </c>
-      <c r="D6" s="2"/>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1800</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2700</v>
+      </c>
+      <c r="E14" s="2"/>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>800</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1200</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1500</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1200</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1800</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1400</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2100</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1600</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2400</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1800</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2700</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4">
+    <row r="15" spans="1:4">
+      <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B15" s="4">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4">
         <v>2000</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D15" s="4">
         <v>3000</v>
       </c>
     </row>

--- a/excel/levels_config.xlsx
+++ b/excel/levels_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>额外钞票奖励</t>
+  </si>
+  <si>
+    <t>boss</t>
   </si>
   <si>
     <t>id</t>
@@ -682,21 +685,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1228,7 +1237,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="F8 J9"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1237,230 +1246,262 @@
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" ht="16.5" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="16.5" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2"/>
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2"/>
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>200</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>300</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>400</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>600</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>600</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>900</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>800</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>1200</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>5</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>1000</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>1500</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>6</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>1200</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>1800</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>7</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>1400</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>2100</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>8</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>8</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>1600</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>2400</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>9</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>9</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>1800</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>2700</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4">
+    <row r="15" spans="1:5">
+      <c r="A15" s="5">
         <v>10</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>10</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>2000</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>3000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excel/levels_config.xlsx
+++ b/excel/levels_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -44,6 +44,9 @@
     <t>boss</t>
   </si>
   <si>
+    <t>关卡总质量</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
   </si>
   <si>
     <t>reward_additional</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>int</t>
@@ -1232,24 +1238,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:5">
+    <row r="1" ht="16.5" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1265,76 +1272,91 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" ht="16.5" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" ht="16.5" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" ht="16.5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -1342,16 +1364,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="5">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D6" s="5">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
+      <c r="F6" s="5">
+        <v>25</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -1359,16 +1384,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="5">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="D7" s="5">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E7" s="6">
         <v>2</v>
       </c>
+      <c r="F7" s="5">
+        <v>90</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -1376,16 +1404,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="5">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="D8" s="5">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E8" s="6">
         <v>3</v>
       </c>
+      <c r="F8" s="5">
+        <v>186</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -1399,10 +1430,13 @@
         <v>1200</v>
       </c>
       <c r="E9" s="6">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -1416,10 +1450,13 @@
         <v>1500</v>
       </c>
       <c r="E10" s="6">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -1433,10 +1470,13 @@
         <v>1800</v>
       </c>
       <c r="E11" s="6">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="F11" s="5">
+        <v>6000</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -1450,10 +1490,13 @@
         <v>2100</v>
       </c>
       <c r="E12" s="6">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="F12" s="5">
+        <v>7000</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -1467,10 +1510,13 @@
         <v>2400</v>
       </c>
       <c r="E13" s="6">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="F13" s="5">
+        <v>8000</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -1484,10 +1530,13 @@
         <v>2700</v>
       </c>
       <c r="E14" s="6">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="F14" s="5">
+        <v>9000</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -1500,8 +1549,11 @@
       <c r="D15" s="5">
         <v>3000</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
+      <c r="E15" s="6">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/excel/levels_config.xlsx
+++ b/excel/levels_config.xlsx
@@ -1243,7 +1243,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1393,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="5">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1404,7 +1404,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="5">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="D8" s="5">
         <v>1200</v>
@@ -1413,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="5">
-        <v>186</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1424,16 +1424,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="5">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="D9" s="5">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E9" s="6">
         <v>4</v>
       </c>
       <c r="F9" s="5">
-        <v>4000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1444,16 +1444,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="5">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D10" s="5">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E10" s="6">
         <v>5</v>
       </c>
       <c r="F10" s="5">
-        <v>5000</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1464,16 +1464,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="5">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="D11" s="5">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="E11" s="6">
         <v>6</v>
       </c>
       <c r="F11" s="5">
-        <v>6000</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1484,16 +1484,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="5">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="D12" s="5">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="E12" s="6">
         <v>7</v>
       </c>
       <c r="F12" s="5">
-        <v>7000</v>
+        <v>19190</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1504,16 +1504,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="5">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="D13" s="5">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="E13" s="6">
         <v>8</v>
       </c>
       <c r="F13" s="5">
-        <v>8000</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1524,16 +1524,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="5">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="D14" s="5">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="E14" s="6">
         <v>9</v>
       </c>
       <c r="F14" s="5">
-        <v>9000</v>
+        <v>155600</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1544,16 +1544,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="5">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="D15" s="5">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E15" s="6">
         <v>10</v>
       </c>
       <c r="F15" s="5">
-        <v>10000</v>
+        <v>575900</v>
       </c>
     </row>
   </sheetData>

--- a/excel/levels_config.xlsx
+++ b/excel/levels_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="21000" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -47,6 +47,9 @@
     <t>关卡总质量</t>
   </si>
   <si>
+    <t>模型数量</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>quality</t>
+  </si>
+  <si>
+    <t>propTotal</t>
   </si>
   <si>
     <t>int</t>
@@ -1238,25 +1244,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="11.1296296296296" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="24.125" customWidth="1"/>
+    <col min="6" max="6" width="24.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:6">
+    <row r="1" ht="15.6" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1275,88 +1281,103 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="16.5" spans="1:6">
+    <row r="2" ht="15.6" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:6">
+    <row r="3" ht="15.6" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
+    <row r="4" ht="31.2" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
+    <row r="5" ht="15.6" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -1375,8 +1396,11 @@
       <c r="F6" s="5">
         <v>25</v>
       </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -1395,8 +1419,11 @@
       <c r="F7" s="5">
         <v>114</v>
       </c>
+      <c r="G7">
+        <v>70</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -1415,8 +1442,11 @@
       <c r="F8" s="5">
         <v>235</v>
       </c>
+      <c r="G8">
+        <v>105</v>
+      </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -1435,8 +1465,11 @@
       <c r="F9" s="5">
         <v>990</v>
       </c>
+      <c r="G9">
+        <v>226</v>
+      </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -1455,8 +1488,11 @@
       <c r="F10" s="5">
         <v>2250</v>
       </c>
+      <c r="G10">
+        <v>335</v>
+      </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -1475,8 +1511,11 @@
       <c r="F11" s="5">
         <v>6640</v>
       </c>
+      <c r="G11">
+        <v>466</v>
+      </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -1495,8 +1534,11 @@
       <c r="F12" s="5">
         <v>19190</v>
       </c>
+      <c r="G12">
+        <v>558</v>
+      </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -1515,8 +1557,11 @@
       <c r="F13" s="5">
         <v>52000</v>
       </c>
+      <c r="G13">
+        <v>690</v>
+      </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -1535,8 +1580,11 @@
       <c r="F14" s="5">
         <v>155600</v>
       </c>
+      <c r="G14">
+        <v>840</v>
+      </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -1554,6 +1602,9 @@
       </c>
       <c r="F15" s="5">
         <v>575900</v>
+      </c>
+      <c r="G15">
+        <v>840</v>
       </c>
     </row>
   </sheetData>

--- a/excel/levels_config.xlsx
+++ b/excel/levels_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12780"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -697,7 +697,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,6 +709,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1249,20 +1252,20 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.6296296296296" customWidth="1"/>
-    <col min="2" max="2" width="11.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="11.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.1333333333333" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="24.1296296296296" customWidth="1"/>
+    <col min="6" max="6" width="24.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:7">
+    <row r="1" ht="16.5" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1281,11 +1284,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:7">
+    <row r="2" ht="16.5" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1304,96 +1307,96 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:7">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="16.5" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="31.2" spans="1:7">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="16.5" spans="1:7">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:7">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="16.5" spans="1:7">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>250</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>250</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>25</v>
       </c>
       <c r="G6">
@@ -1401,68 +1404,68 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>800</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>800</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>2</v>
       </c>
-      <c r="F7" s="5">
-        <v>114</v>
+      <c r="F7" s="6">
+        <v>297</v>
       </c>
       <c r="G7">
-        <v>70</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>1000</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>1200</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>3</v>
       </c>
-      <c r="F8" s="5">
-        <v>235</v>
+      <c r="F8" s="6">
+        <v>411</v>
       </c>
       <c r="G8">
-        <v>105</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>1200</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>1600</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="7">
         <v>4</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>990</v>
       </c>
       <c r="G9">
@@ -1470,22 +1473,22 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>1500</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>2000</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="7">
         <v>5</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>2250</v>
       </c>
       <c r="G10">
@@ -1493,22 +1496,22 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>1600</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>2400</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="7">
         <v>6</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>6640</v>
       </c>
       <c r="G11">
@@ -1516,22 +1519,22 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>1800</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>2800</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="7">
         <v>7</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <v>19190</v>
       </c>
       <c r="G12">
@@ -1539,22 +1542,22 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>8</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>2000</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>3200</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="7">
         <v>8</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <v>52000</v>
       </c>
       <c r="G13">
@@ -1562,22 +1565,22 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>9</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>2200</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>3600</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="7">
         <v>9</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>155600</v>
       </c>
       <c r="G14">
@@ -1585,22 +1588,22 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>10</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <v>2400</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <v>4000</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="7">
         <v>10</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="6">
         <v>575900</v>
       </c>
       <c r="G15">
